--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject46.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject46.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.76922673442555778</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0</v>
+        <v>0.5223600607771397</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -311,7 +311,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="0">
-        <v>0</v>
+        <v>0.74120363138029588</v>
       </c>
       <c r="BK1" s="0">
         <v>0</v>
@@ -323,7 +323,7 @@
         <v>0</v>
       </c>
       <c r="BN1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.53151697784945284</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -394,13 +394,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>0</v>
+        <v>0.93598886228106037</v>
       </c>
       <c r="V2" s="0">
         <v>0</v>
       </c>
       <c r="W2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="0">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="AO2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>0</v>
+        <v>0.52027285918416721</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
+        <v>0.82804991656155225</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>0.60739167184755471</v>
       </c>
       <c r="AE3" s="0">
-        <v>0</v>
+        <v>0.85898050082293098</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>0</v>
+        <v>0.6814815486852317</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0</v>
+        <v>0.73780709747176987</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0</v>
+        <v>0.77892308477988625</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0</v>
+        <v>0.82294320587956249</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.87173266969576813</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.70266144114894413</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>0.78540670711257965</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
       </c>
       <c r="AE5" s="0">
-        <v>0</v>
+        <v>0.91313346199885592</v>
       </c>
       <c r="AF5" s="0">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.58642101877112318</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.99978144037216754</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>0</v>
+        <v>0.910631658723703</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.53156432863116687</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="0">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>0</v>
+        <v>0.61169242821121839</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>0.60541673905378879</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="0">
-        <v>0</v>
+        <v>0.55450884699923719</v>
       </c>
       <c r="AM8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0</v>
+        <v>0.81642680356797737</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0</v>
+        <v>0.66616332482778651</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.59374976612030284</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.9287463195003931</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.67010944621786961</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="0">
-        <v>1</v>
+        <v>0.53423641211357253</v>
       </c>
       <c r="BJ9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0</v>
+        <v>0.81905719558184265</v>
       </c>
     </row>
     <row r="10">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.88249601327628047</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.76952637758525078</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>1</v>
+        <v>0.92352861980142043</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0</v>
+        <v>0.79382170956459075</v>
       </c>
       <c r="BM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="BP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.85122450899930069</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.76580018817931705</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="AO11" s="0">
-        <v>0</v>
+        <v>0.74356607340947534</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="0">
         <v>0</v>
@@ -2347,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0</v>
+        <v>0.67716957008197154</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
       </c>
       <c r="BP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.50472611808158807</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>0</v>
+        <v>0.83515752144534705</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0</v>
+        <v>0.54525411341068653</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0</v>
+        <v>0.67440657258428161</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0</v>
+        <v>0.54483798935785843</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>1</v>
+        <v>0.91545652118685961</v>
       </c>
       <c r="AZ14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.57616115289846159</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>0</v>
+        <v>0.70510250211135261</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0</v>
+        <v>0.91779477679218036</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0</v>
+        <v>0.76543049661436413</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3251,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>0</v>
+        <v>0.88186754718059057</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
@@ -3386,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0</v>
+        <v>0.57067187614491832</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>0.68291577613662047</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>0</v>
+        <v>0.66330704777967098</v>
       </c>
       <c r="AB17" s="0">
         <v>0</v>
       </c>
       <c r="AC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="0">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
       </c>
       <c r="AI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>0</v>
+        <v>0.95247001563561162</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.64868011805318493</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.97237855132344686</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="0">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>0</v>
+        <v>0.53756613971367706</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AO18" s="0">
-        <v>0</v>
+        <v>0.59145362285363112</v>
       </c>
       <c r="AP18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0</v>
+        <v>0.74161253783273029</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3842,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>0.95927744509921842</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.50629689410281231</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0</v>
+        <v>0.6569480742051963</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.98168572612343619</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AO20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0</v>
+        <v>0.9170793736114955</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="0">
-        <v>0</v>
+        <v>0.91523988240003551</v>
       </c>
       <c r="BB20" s="0">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="0">
         <v>0</v>
@@ -4251,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>0.63143288841200063</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.64632499251103503</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0</v>
+        <v>0.78872797790276572</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0</v>
+        <v>0.83813330419745913</v>
       </c>
     </row>
     <row r="22">
@@ -4463,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>0.96124099297667032</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0</v>
+        <v>0.76680126122733494</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.8901852405233146</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.51484954660214521</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4738,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>0.66796361524285763</v>
       </c>
       <c r="AB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>0</v>
+        <v>0.61583237704997651</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="0">
-        <v>0</v>
+        <v>0.65986730666184656</v>
       </c>
       <c r="AY23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>0</v>
+        <v>0.82642961205927068</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.63942966486109398</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4965,16 +4965,16 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>1</v>
+        <v>0.89625066628704908</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>0</v>
+        <v>0.63832789819641467</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>0</v>
+        <v>0.87880292496634049</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="0">
         <v>0</v>
@@ -5117,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
       </c>
       <c r="R25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="0">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.87865380406379079</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.80874916896711024</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0</v>
+        <v>0.9060372007606009</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0</v>
+        <v>0.76821318122935833</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.96536971813419359</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0</v>
+        <v>0.95447221566449436</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>0</v>
+        <v>0.96126076741806288</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.95941525563344654</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0</v>
+        <v>0.53675718208649692</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0</v>
+        <v>0.56031066969859455</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
@@ -5565,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
       </c>
       <c r="AD27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0</v>
+        <v>0.66732325482387178</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.80504578979385699</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>0</v>
+        <v>0.81212432460852158</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>0</v>
+        <v>0.5697858421380565</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5885,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0</v>
+        <v>0.75330636096550774</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="0">
-        <v>0</v>
+        <v>0.87754715202564026</v>
       </c>
       <c r="BC29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6105,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.88520959997945048</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.95997108158504185</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>0.72089720693256132</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
       </c>
       <c r="E31" s="0">
-        <v>0</v>
+        <v>0.62109847591700729</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0</v>
+        <v>0.63120878469781827</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>0</v>
+        <v>0.80135581590043481</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="BC31" s="0">
-        <v>0</v>
+        <v>0.75599175248572936</v>
       </c>
       <c r="BD31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="BP31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6613,25 +6613,25 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>0</v>
+        <v>0.6822757053812265</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>0</v>
+        <v>0.52548675148261093</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6694,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0</v>
+        <v>0.81036225702015141</v>
       </c>
       <c r="BK32" s="0">
-        <v>1</v>
+        <v>0.8971726007610521</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6768,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>0</v>
+        <v>0.98530639964696209</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.91508381350417589</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0</v>
+        <v>0.52667724737091093</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.86272480660172335</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.80720338785418311</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="BL34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM34" s="0">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0</v>
+        <v>0.60710339904844812</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
+        <v>0.6202901110168253</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.51158683082020318</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.80447076988458388</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>0.52259579331764228</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.73778547707250342</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.65098135458682993</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0</v>
+        <v>0.61829999436544369</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0</v>
+        <v>0.84054198130171676</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0</v>
+        <v>0.79241197017828791</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7625,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0</v>
+        <v>0.53778013769738031</v>
       </c>
       <c r="AC37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0</v>
+        <v>0.6644952411127707</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7691,13 +7691,13 @@
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>0</v>
+        <v>0.55229222933363797</v>
       </c>
       <c r="AY37" s="0">
-        <v>0</v>
+        <v>0.92832936412482625</v>
       </c>
       <c r="AZ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>0</v>
+        <v>0.79334401201697569</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>0</v>
+        <v>0.64337368651258975</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7771,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="0">
-        <v>0</v>
+        <v>0.79636947180141981</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.58586934389220358</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="0">
-        <v>0</v>
+        <v>0.68612965012522165</v>
       </c>
       <c r="AR38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0</v>
+        <v>0.69845074068885538</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0</v>
+        <v>0.6657507012505377</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0</v>
+        <v>0.9359095735566092</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0</v>
+        <v>0.96706017094355723</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8106,19 +8106,19 @@
         <v>0</v>
       </c>
       <c r="AY39" s="0">
-        <v>0</v>
+        <v>0.72507131047002793</v>
       </c>
       <c r="AZ39" s="0">
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.91965534247466507</v>
       </c>
       <c r="BB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8207,10 +8207,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0</v>
+        <v>0.92986758724319074</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8240,13 +8240,13 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0</v>
+        <v>0.74439070793696804</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>0</v>
+        <v>0.64794490171105623</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.79486927419551678</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8371,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>0.69775661291387803</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0</v>
+        <v>0.73702385713302943</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8419,16 +8419,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="0">
-        <v>0</v>
+        <v>0.87785548221056264</v>
       </c>
       <c r="S41" s="0">
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0</v>
+        <v>0.51461034719593779</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="AR41" s="0">
-        <v>0</v>
+        <v>0.88483537687434732</v>
       </c>
       <c r="AS41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>0</v>
+        <v>0.60901332804920982</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.97586833012139973</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8688,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0</v>
+        <v>0.84390773941556141</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.53658561408289052</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8715,10 +8715,10 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0</v>
+        <v>0.55529152750996236</v>
       </c>
       <c r="AW42" s="0">
-        <v>0</v>
+        <v>0.9219373246389575</v>
       </c>
       <c r="AX42" s="0">
         <v>0</v>
@@ -8757,19 +8757,19 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0</v>
+        <v>0.84885148976848157</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0</v>
+        <v>0.83864532397356417</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.74280617206261246</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>0</v>
+        <v>0.50994519374994884</v>
       </c>
       <c r="AM43" s="0">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>0</v>
+        <v>0.8094374670931892</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>0</v>
+        <v>0.50827757932806694</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>0</v>
+        <v>0.90929727755710654</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -9040,10 +9040,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0</v>
+        <v>0.97465880742577726</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0</v>
+        <v>0.91935941758116768</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9106,10 +9106,10 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0</v>
+        <v>0.57498289089174692</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="BB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0</v>
+        <v>0.9063256062004158</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>1</v>
+        <v>0.65111068340778</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>0</v>
+        <v>0.96463664189798992</v>
       </c>
       <c r="AZ45" s="0">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="BF45" s="0">
-        <v>0</v>
+        <v>0.97892476574148524</v>
       </c>
       <c r="BG45" s="0">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="BL45" s="0">
-        <v>0</v>
+        <v>0.96049306529920453</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>0.85805192766325811</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>0.81897342988244648</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0</v>
+        <v>0.9547663708881291</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>0</v>
+        <v>0.94938074679339379</v>
       </c>
       <c r="AG46" s="0">
-        <v>0</v>
+        <v>0.5561582943546014</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9506,13 +9506,13 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0</v>
+        <v>0.95395874667094949</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0</v>
+        <v>0.93734818153673571</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0</v>
+        <v>0.5674520444894231</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.66688838275693874</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.56490972277401019</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>0</v>
+        <v>0.74869449764690188</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>0</v>
+        <v>0.90010623442621296</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9754,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="0">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>0</v>
+        <v>0.99362696012029184</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
+        <v>0.97691413482895073</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="0">
-        <v>0</v>
+        <v>0.69408148116275958</v>
       </c>
       <c r="AQ48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9957,16 +9957,16 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
-        <v>0</v>
+        <v>0.56563497640301286</v>
       </c>
       <c r="AZ48" s="0">
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="0">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="0">
-        <v>0</v>
+        <v>0.9491662083366148</v>
       </c>
       <c r="AQ49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0</v>
+        <v>0.56025644566518462</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0</v>
+        <v>0.58419897844821045</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>0</v>
+        <v>0.52472410084156229</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>0</v>
+        <v>0.94255303732603679</v>
       </c>
       <c r="AL50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.71164716495865488</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>0</v>
+        <v>0.55017057283828996</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>0</v>
+        <v>0.68117467304503232</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
@@ -10467,13 +10467,13 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>1</v>
+        <v>0.86937053545102549</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="0">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="0">
         <v>0</v>
@@ -10536,13 +10536,13 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>0</v>
+        <v>0.98022606607880225</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
       </c>
       <c r="AM51" s="0">
-        <v>0</v>
+        <v>0.81583350961448575</v>
       </c>
       <c r="AN51" s="0">
         <v>0</v>
@@ -10560,16 +10560,16 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>0</v>
+        <v>0.95410430014671554</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
       </c>
       <c r="AU51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>0</v>
+        <v>0.52076285824799884</v>
       </c>
       <c r="AW51" s="0">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.66185934596510343</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.72207781259293102</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.56796217780972635</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>0.72412082697466951</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10879,13 +10879,13 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.75772862256168172</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0</v>
+        <v>0.55708791724105833</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>0</v>
+        <v>0.89928433039049072</v>
       </c>
       <c r="U53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>0</v>
+        <v>0.55457796026902817</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10951,10 +10951,10 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.52531824060224008</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -11035,13 +11035,13 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0</v>
+        <v>0.51709081856067063</v>
       </c>
     </row>
     <row r="54">
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0</v>
+        <v>0.75830962228278675</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0</v>
+        <v>0.51133954474792742</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="0">
         <v>0</v>
@@ -11172,10 +11172,10 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>0</v>
+        <v>0.75803571188877128</v>
       </c>
       <c r="AR54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.65465903676987369</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.75383123591817425</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>0</v>
+        <v>0.82110440291902909</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="0">
-        <v>0</v>
+        <v>0.57167040026096128</v>
       </c>
       <c r="AF55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.9971420471462491</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
+        <v>0.91511651502192515</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11488,19 +11488,19 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0</v>
+        <v>0.73213463010481594</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>0.63257716123070451</v>
       </c>
       <c r="O56" s="0">
-        <v>0</v>
+        <v>0.92075273291565141</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0</v>
+        <v>0.60751864864300054</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>0</v>
+        <v>0.9471800760202389</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.78828911858405393</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0</v>
+        <v>0.86322339961884231</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>0</v>
+        <v>0.62149192551100896</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="BL57" s="0">
-        <v>0</v>
+        <v>0.8189032438157825</v>
       </c>
       <c r="BM57" s="0">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="0">
-        <v>0</v>
+        <v>0.56585262485573051</v>
       </c>
       <c r="AT58" s="0">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="AW58" s="0">
-        <v>0</v>
+        <v>0.60287353733656279</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.67084437506467676</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.98622024572136002</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12118,10 +12118,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>0</v>
+        <v>0.91297618023856186</v>
       </c>
       <c r="P59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.96089454556724507</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12223,13 +12223,13 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.74587091658735027</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.75292211730392555</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.75044967734317114</v>
       </c>
       <c r="BJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0</v>
+        <v>0.97115459370378665</v>
       </c>
       <c r="Y60" s="0">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>0</v>
+        <v>0.83894389962053773</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12509,10 +12509,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>0</v>
+        <v>0.91383404814341851</v>
       </c>
       <c r="I61" s="0">
-        <v>1</v>
+        <v>0.61629769599858764</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0</v>
+        <v>0.83895844340783643</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.9621937508804157</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0</v>
+        <v>0.77762020732056381</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>0.79636804554167173</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>0.59140336201410171</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12817,10 +12817,10 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>0</v>
+        <v>0.51168668151548391</v>
       </c>
       <c r="AQ62" s="0">
-        <v>0</v>
+        <v>0.51737871615732278</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0</v>
+        <v>0.71742113631641802</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12868,10 +12868,10 @@
         <v>0</v>
       </c>
       <c r="BG62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12966,16 +12966,16 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="0">
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0</v>
+        <v>0.70259507348479133</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>1</v>
+        <v>0.88831300391408541</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>0</v>
+        <v>0.69471829268454788</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0</v>
+        <v>0.60034375436935361</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0</v>
+        <v>0.99989785643840146</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13238,13 +13238,13 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>0</v>
+        <v>0.88672233809596945</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="BE64" s="0">
-        <v>0</v>
+        <v>0.84047815408948501</v>
       </c>
       <c r="BF64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.68752526549972903</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>0</v>
+        <v>0.61273136265089312</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.76816543642380042</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.98009246000586414</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13518,13 +13518,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0</v>
+        <v>0.99220170563480503</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>0</v>
+        <v>0.80640574520615083</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13596,10 +13596,10 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.55475926253894525</v>
       </c>
       <c r="AB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>0.52770270195392388</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13641,10 +13641,10 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>0</v>
+        <v>0.89341241407679117</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>0</v>
+        <v>0.58958795899174543</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0</v>
+        <v>0.63229994758608876</v>
       </c>
       <c r="BL66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.79760384324759603</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13799,13 +13799,13 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>0</v>
+        <v>0.52687503246323342</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0</v>
+        <v>0.60043428843670488</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.59644636195768364</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.91521529037906657</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13954,13 +13954,13 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0</v>
+        <v>0.78384844698068512</v>
       </c>
       <c r="J68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0</v>
+        <v>0.90216932484964807</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14086,13 +14086,13 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0</v>
+        <v>0.83108341157279764</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject46.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject46.xlsx
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0.5223600607771397</v>
+        <v>0.73778547707250342</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -311,7 +311,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="0">
-        <v>0.74120363138029588</v>
+        <v>0.77762020732056381</v>
       </c>
       <c r="BK1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.53151697784945284</v>
+        <v>0.76922673442555778</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>0.52027285918416721</v>
+        <v>0.91511651502192515</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0.82804991656155225</v>
+        <v>0.95927744509921842</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.60739167184755471</v>
+        <v>0.88520959997945048</v>
       </c>
       <c r="AE3" s="0">
         <v>0.85898050082293098</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.6814815486852317</v>
+        <v>0.69775661291387803</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0.73780709747176987</v>
+        <v>0.85805192766325811</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0.77892308477988625</v>
+        <v>0.96124099297667032</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.58642101877112318</v>
+        <v>0.70266144114894413</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>0.910631658723703</v>
+        <v>0.97691413482895073</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.53156432863116687</v>
+        <v>0.59374976612030284</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.61169242821121839</v>
+        <v>0.68117467304503232</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.60541673905378879</v>
+        <v>0.68291577613662047</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.55450884699923719</v>
+        <v>0.79636947180141981</v>
       </c>
       <c r="AM8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0.81642680356797737</v>
+        <v>0.9547663708881291</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0.66616332482778651</v>
+        <v>0.91383404814341851</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.9287463195003931</v>
       </c>
       <c r="K9" s="0">
-        <v>0.67010944621786961</v>
+        <v>0.85122450899930069</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="0">
-        <v>0.53423641211357253</v>
+        <v>0.61629769599858764</v>
       </c>
       <c r="BJ9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.88249601327628047</v>
+        <v>0.9287463195003931</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.76580018817931705</v>
+        <v>0.95941525563344654</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0.67716957008197154</v>
+        <v>0.99220170563480503</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.50472611808158807</v>
+        <v>0.76952637758525078</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0.54525411341068653</v>
+        <v>0.76680126122733494</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0.54483798935785843</v>
+        <v>0.73213463010481594</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0.57616115289846159</v>
+        <v>0.75772862256168172</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0.91779477679218036</v>
+        <v>0.92075273291565141</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.76543049661436413</v>
+        <v>0.91297618023856186</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0.57067187614491832</v>
+        <v>0.86322339961884231</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>0.53756613971367706</v>
+        <v>0.98530639964696209</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AO18" s="0">
-        <v>0.59145362285363112</v>
+        <v>0.87785548221056264</v>
       </c>
       <c r="AP18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0.74161253783273029</v>
+        <v>0.80640574520615083</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.50629689410281231</v>
+        <v>0.97237855132344686</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0.6569480742051963</v>
+        <v>0.74869449764690188</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0.9170793736114955</v>
+        <v>0.97465880742577726</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0.63143288841200063</v>
+        <v>0.93598886228106037</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0.83813330419745913</v>
+        <v>0.90216932484964807</v>
       </c>
     </row>
     <row r="22">
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.8901852405233146</v>
+        <v>0.98168572612343619</v>
       </c>
       <c r="U22" s="0">
-        <v>0.51484954660214521</v>
+        <v>0.64632499251103503</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.63942966486109398</v>
+        <v>0.87865380406379079</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>0.63832789819641467</v>
+        <v>0.79241197017828791</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>0.87880292496634049</v>
+        <v>0.97115459370378665</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.80874916896711024</v>
+        <v>0.96536971813419359</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0.76821318122935833</v>
+        <v>0.79636804554167173</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.53675718208649692</v>
+        <v>0.66330704777967098</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0.56031066969859455</v>
+        <v>0.66796361524285763</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0.66732325482387178</v>
+        <v>0.74439070793696804</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0.75330636096550774</v>
+        <v>0.78540670711257965</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>0.72089720693256132</v>
+        <v>0.85898050082293098</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
       </c>
       <c r="E31" s="0">
-        <v>0.62109847591700729</v>
+        <v>0.91313346199885592</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0.63120878469781827</v>
+        <v>0.6657507012505377</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>0.80135581590043481</v>
+        <v>0.91935941758116768</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>0.52548675148261093</v>
+        <v>0.94938074679339379</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0.52667724737091093</v>
+        <v>0.5561582943546014</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0.80720338785418311</v>
+        <v>0.96089454556724507</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0.60710339904844812</v>
+        <v>0.61583237704997651</v>
       </c>
       <c r="X35" s="0">
-        <v>0.6202901110168253</v>
+        <v>0.89625066628704908</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.51158683082020318</v>
+        <v>0.91508381350417589</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.80447076988458388</v>
+        <v>0.86272480660172335</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0.52259579331764228</v>
+        <v>0.52770270195392388</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0.61829999436544369</v>
+        <v>0.83894389962053773</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.53778013769738031</v>
+        <v>0.81212432460852158</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0.6644952411127707</v>
+        <v>0.95395874667094949</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>0.55229222933363797</v>
+        <v>0.94255303732603679</v>
       </c>
       <c r="AY37" s="0">
-        <v>0.92832936412482625</v>
+        <v>0.98022606607880225</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>0.79334401201697569</v>
+        <v>0.9471800760202389</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>0.64337368651258975</v>
+        <v>0.83895844340783643</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.58586934389220358</v>
+        <v>0.65098135458682993</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0.69845074068885538</v>
+        <v>0.83515752144534705</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="AY39" s="0">
-        <v>0.72507131047002793</v>
+        <v>0.81583350961448575</v>
       </c>
       <c r="AZ39" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.92986758724319074</v>
+        <v>0.95247001563561162</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>0.64794490171105623</v>
+        <v>0.6822757053812265</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0.73702385713302943</v>
+        <v>0.74356607340947534</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0.51461034719593779</v>
+        <v>0.78872797790276572</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>0.60901332804920982</v>
+        <v>0.90010623442621296</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.97586833012139973</v>
+        <v>0.99978144037216754</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8688,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0.84390773941556141</v>
+        <v>0.9359095735566092</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.53658561408289052</v>
+        <v>0.79486927419551678</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8715,10 +8715,10 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0.55529152750996236</v>
+        <v>0.69408148116275958</v>
       </c>
       <c r="AW42" s="0">
-        <v>0.9219373246389575</v>
+        <v>0.9491662083366148</v>
       </c>
       <c r="AX42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0.83864532397356417</v>
+        <v>0.99989785643840146</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0.74280617206261246</v>
+        <v>0.95997108158504185</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>0.50994519374994884</v>
+        <v>0.68612965012522165</v>
       </c>
       <c r="AM43" s="0">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>0.50827757932806694</v>
+        <v>0.51737871615732278</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0.57498289089174692</v>
+        <v>0.88483537687434732</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>0.65111068340778</v>
+        <v>0.92352861980142043</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0.85805192766325811</v>
       </c>
       <c r="D46" s="0">
-        <v>0.81897342988244648</v>
+        <v>0.82294320587956249</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0.93734818153673571</v>
+        <v>0.96706017094355723</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0.5674520444894231</v>
+        <v>0.71742113631641802</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0.66688838275693874</v>
+        <v>0.67440657258428161</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.56490972277401019</v>
+        <v>0.64868011805318493</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0.56025644566518462</v>
+        <v>0.60287353733656279</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0.58419897844821045</v>
+        <v>0.58958795899174543</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>0.52472410084156229</v>
+        <v>0.65986730666184656</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>0.55017057283828996</v>
+        <v>0.62149192551100896</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>0.86937053545102549</v>
+        <v>0.91545652118685961</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>0.95410430014671554</v>
+        <v>0.96463664189798992</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>0.52076285824799884</v>
+        <v>0.56563497640301286</v>
       </c>
       <c r="AW51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.66185934596510343</v>
+        <v>0.71164716495865488</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0.56796217780972635</v>
+        <v>0.74587091658735027</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0.72412082697466951</v>
+        <v>0.87173266969576813</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0.55708791724105833</v>
+        <v>0.88186754718059057</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>0.89928433039049072</v>
+        <v>0.91523988240003551</v>
       </c>
       <c r="U53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>0.55457796026902817</v>
+        <v>0.5697858421380565</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.52531824060224008</v>
+        <v>0.91965534247466507</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0.51709081856067063</v>
+        <v>0.83108341157279764</v>
       </c>
     </row>
     <row r="54">
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0.75830962228278675</v>
+        <v>0.95447221566449436</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.51133954474792742</v>
+        <v>0.87754715202564026</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>0.75803571188877128</v>
+        <v>0.8094374670931892</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.65465903676987369</v>
+        <v>0.72207781259293102</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.75383123591817425</v>
+        <v>0.9971420471462491</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>0.82110440291902909</v>
+        <v>0.9060372007606009</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="0">
-        <v>0.57167040026096128</v>
+        <v>0.75599175248572936</v>
       </c>
       <c r="AF55" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0.73213463010481594</v>
       </c>
       <c r="N56" s="0">
-        <v>0.63257716123070451</v>
+        <v>0.70510250211135261</v>
       </c>
       <c r="O56" s="0">
         <v>0.92075273291565141</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0.60751864864300054</v>
+        <v>0.82642961205927068</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="BL57" s="0">
-        <v>0.8189032438157825</v>
+        <v>0.84047815408948501</v>
       </c>
       <c r="BM57" s="0">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="0">
-        <v>0.56585262485573051</v>
+        <v>0.97892476574148524</v>
       </c>
       <c r="AT58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.67084437506467676</v>
+        <v>0.78828911858405393</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.75292211730392555</v>
+        <v>0.98622024572136002</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.75044967734317114</v>
+        <v>0.9621937508804157</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.59140336201410171</v>
+        <v>0.81036225702015141</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>0.51168668151548391</v>
+        <v>0.84885148976848157</v>
       </c>
       <c r="AQ62" s="0">
         <v>0.51737871615732278</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0.70259507348479133</v>
+        <v>0.96126076741806288</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0.88831300391408541</v>
+        <v>0.8971726007610521</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0.60034375436935361</v>
+        <v>0.79382170956459075</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>0.88672233809596945</v>
+        <v>0.96049306529920453</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.68752526549972903</v>
+        <v>0.76816543642380042</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>0.61273136265089312</v>
+        <v>0.99362696012029184</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.55475926253894525</v>
+        <v>0.80504578979385699</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>0.89341241407679117</v>
+        <v>0.90929727755710654</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0.63229994758608876</v>
+        <v>0.69471829268454788</v>
       </c>
       <c r="BL66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.79760384324759603</v>
+        <v>0.91521529037906657</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>0.52687503246323342</v>
+        <v>0.84054198130171676</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0.60043428843670488</v>
+        <v>0.9063256062004158</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.59644636195768364</v>
+        <v>0.98009246000586414</v>
       </c>
       <c r="BN67" s="0">
         <v>0.91521529037906657</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0.78384844698068512</v>
+        <v>0.81905719558184265</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
